--- a/articles.xlsx
+++ b/articles.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,17 +441,170 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>"용돈 적다" 추석날 아내 폭행한 60대 쓰러진 채 발견(종합)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>http://yna.kr/AKR20201002019651065?did=1195m</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>연합뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>추석 다음날 아침 귀경길 고속도로 원활…부산-서울 5시간10분</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://cnbc.sbs.co.kr/article_hub/10000998149?division=NAVER</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SBS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>추석 제주 관광객 20만 명…4일까지 30만 명 방문 예상</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1006006389&amp;plink=ORI&amp;cooper=NAVER</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SBS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>추석 연휴 이후 코로나19 대유행 우려…산발적 집단감염 잇따라</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>http://www.kwnews.co.kr/nview.asp?aid=220100100000</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>강원일보</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>민경욱, 추석 연휴 미국서 "한국 부정선거 배후에 중국"</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>http://www.newsis.com/view/?id=NISX20201002_0001184907&amp;cID=10301&amp;pID=10300</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>뉴시스</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>소시지 3개에 김치 3조각... 격리된 병사가 먹은 추석날 저녁</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>http://www.ohmynews.com/NWS_Web/View/at_pg.aspx?CNTN_CD=A0002680782&amp;CMPT_CD=P0010&amp;utm_source=naver&amp;utm_medium=newsearch&amp;utm_campaign=naver_news</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>오마이뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>"행복한 한가위 보내세요"… 바이든, 한글로 추석인사</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://biz.chosun.com/site/data/html_dir/2020/10/02/2020100200237.html?utm_source=naver&amp;utm_medium=original&amp;utm_campaign=biz</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>조선비즈</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>추석 귀경길 정체 오후 1∼2시 절정…저녁 8~9시 해소 전망</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>http://www.edaily.co.kr/news/newspath.asp?newsid=01462886625928984</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>이데일리</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>코로나19 신규확진 100명 안팎 등락 지속…추석 이후가 '걱정'</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>http://yna.kr/AKR20201001033300530?did=1195m</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>연합뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>구름 사이 '휘영청' 추석 보름달, 가장 높게 뜨는 시각은?</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://biz.chosun.com/site/data/html_dir/2020/10/01/2020100100136.html?utm_source=naver&amp;utm_medium=original&amp;utm_campaign=biz</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>조선비즈</t>
         </is>
       </c>
     </row>

--- a/articles.xlsx
+++ b/articles.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,174 +437,9 @@
           <t>신문사</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
-          <t>"용돈 적다" 추석날 아내 폭행한 60대 쓰러진 채 발견(종합)</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>http://yna.kr/AKR20201002019651065?did=1195m</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>연합뉴스</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>추석 다음날 아침 귀경길 고속도로 원활…부산-서울 5시간10분</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://cnbc.sbs.co.kr/article_hub/10000998149?division=NAVER</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>SBS</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>추석 제주 관광객 20만 명…4일까지 30만 명 방문 예상</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1006006389&amp;plink=ORI&amp;cooper=NAVER</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>SBS</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>추석 연휴 이후 코로나19 대유행 우려…산발적 집단감염 잇따라</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>http://www.kwnews.co.kr/nview.asp?aid=220100100000</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>강원일보</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>민경욱, 추석 연휴 미국서 "한국 부정선거 배후에 중국"</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>http://www.newsis.com/view/?id=NISX20201002_0001184907&amp;cID=10301&amp;pID=10300</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>뉴시스</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>소시지 3개에 김치 3조각... 격리된 병사가 먹은 추석날 저녁</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>http://www.ohmynews.com/NWS_Web/View/at_pg.aspx?CNTN_CD=A0002680782&amp;CMPT_CD=P0010&amp;utm_source=naver&amp;utm_medium=newsearch&amp;utm_campaign=naver_news</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>오마이뉴스</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>"행복한 한가위 보내세요"… 바이든, 한글로 추석인사</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>https://biz.chosun.com/site/data/html_dir/2020/10/02/2020100200237.html?utm_source=naver&amp;utm_medium=original&amp;utm_campaign=biz</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>조선비즈</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>추석 귀경길 정체 오후 1∼2시 절정…저녁 8~9시 해소 전망</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>http://www.edaily.co.kr/news/newspath.asp?newsid=01462886625928984</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>이데일리</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>코로나19 신규확진 100명 안팎 등락 지속…추석 이후가 '걱정'</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>http://yna.kr/AKR20201001033300530?did=1195m</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>연합뉴스</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>구름 사이 '휘영청' 추석 보름달, 가장 높게 뜨는 시각은?</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>https://biz.chosun.com/site/data/html_dir/2020/10/01/2020100100136.html?utm_source=naver&amp;utm_medium=original&amp;utm_campaign=biz</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>조선비즈</t>
+          <t>썸네일</t>
         </is>
       </c>
     </row>
